--- a/server/TestList.xlsx
+++ b/server/TestList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kahof\Desktop\training\springboot_docker2\spring_boot\server\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{127B00AB-3863-4F1B-9F2D-1FF5B6E55765}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C80236F5-57B7-4940-BB50-C89E1FCBFAF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="930" yWindow="0" windowWidth="14400" windowHeight="7360" xr2:uid="{996888BC-ECB4-413B-AB75-1032A9C40BEC}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="23">
   <si>
     <t>単体テスト項目</t>
     <rPh sb="0" eb="2">
@@ -218,6 +218,91 @@
     </rPh>
     <rPh sb="19" eb="21">
       <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>localhost:8080 入力時</t>
+    <rPh sb="15" eb="18">
+      <t>ニュウリョクジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>トップ画面への遷移</t>
+    <rPh sb="3" eb="5">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Hello World!出力</t>
+    <rPh sb="12" eb="14">
+      <t>シュツリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>messageの受け渡し確認</t>
+    <rPh sb="8" eb="9">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ワタ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>結合テスト項目</t>
+    <rPh sb="0" eb="2">
+      <t>ケツゴウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>コウモク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>問い合わせフォーム作成から完了までの全体の流れ</t>
+    <rPh sb="0" eb="1">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ゼンタイ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ナガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>単体テストでの動作項目を連結</t>
+    <rPh sb="0" eb="2">
+      <t>タンタイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ドウサ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>レンケツ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -243,7 +328,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -253,6 +338,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -286,7 +377,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -301,6 +392,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -616,15 +710,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CBD9130-7031-431D-935C-81284E484E3F}">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="3" max="3" width="43.33203125" customWidth="1"/>
+    <col min="3" max="3" width="50.6640625" customWidth="1"/>
     <col min="4" max="4" width="43.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -648,31 +742,31 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="1">
+      <c r="A3" s="5">
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>15</v>
+      <c r="C3" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="1">
+      <c r="A4" s="5">
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>8</v>
+      <c r="C4" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -683,10 +777,10 @@
         <v>5</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -697,10 +791,10 @@
         <v>5</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -711,10 +805,10 @@
         <v>5</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -725,10 +819,71 @@
         <v>5</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="B9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="5">
+        <v>1</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
